--- a/Middle School Input.xlsx
+++ b/Middle School Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\School Timetabling\St. Michaels University School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Hoshino\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8395B6AF-AFDD-4F4C-9FA4-0B245629EDFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC20F58-F5E8-4034-A8C7-D66CE622A999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade6" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="61">
   <si>
     <t>Assembly</t>
   </si>
@@ -210,6 +212,12 @@
   </si>
   <si>
     <t>Comp/Comm</t>
+  </si>
+  <si>
+    <t>SharedBand</t>
+  </si>
+  <si>
+    <t>SharedStrings</t>
   </si>
 </sst>
 </file>
@@ -798,33 +806,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P17"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -846,7 +856,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -884,7 +894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -922,7 +932,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
@@ -960,7 +970,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1036,12 +1046,12 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>29</v>
@@ -1050,7 +1060,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>29</v>
@@ -1059,7 +1069,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>30</v>
@@ -1068,317 +1078,347 @@
         <v>28</v>
       </c>
       <c r="O8" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="N9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13" t="s">
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="8">
+        <v>2</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8">
-        <v>2</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="O11" s="8">
+        <v>2</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="8">
-        <v>2</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="12" t="s">
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="J11" s="12" t="s">
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="8">
-        <v>2</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="N11" s="12" t="s">
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="N12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="8">
-        <v>2</v>
-      </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="13" t="s">
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13" t="s">
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="F14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="J14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="N14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>0</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="D15" s="13"/>
       <c r="F15" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
       </c>
       <c r="H15" s="13"/>
       <c r="J15" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="13"/>
       <c r="N15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
         <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>1</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="13"/>
       <c r="F16" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="13"/>
       <c r="N16" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="8">
         <v>1</v>
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="F17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="J17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="N17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
-        <f>SUM(C4:C16)</f>
+      <c r="C18" s="15">
+        <f>SUM(C4:C17)</f>
         <v>35</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="F17" s="14" t="s">
+      <c r="D18" s="16"/>
+      <c r="F18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="15">
-        <f>SUM(G4:G16)</f>
+      <c r="G18" s="15">
+        <f>SUM(G4:G17)</f>
         <v>35</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="J17" s="14" t="s">
+      <c r="H18" s="16"/>
+      <c r="J18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="15">
-        <f>SUM(K4:K16)</f>
+      <c r="K18" s="15">
+        <f>SUM(K4:K17)</f>
         <v>35</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="N17" s="14" t="s">
+      <c r="L18" s="16"/>
+      <c r="N18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="15">
-        <f>SUM(O4:O16)</f>
+      <c r="O18" s="15">
+        <f>SUM(O4:O17)</f>
         <v>35</v>
       </c>
-      <c r="P17" s="16"/>
+      <c r="P18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1388,35 +1428,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD03C7A1-8A5B-4466-B9A5-3651C9964F01}">
-  <dimension ref="B1:P17"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>44</v>
@@ -1438,7 +1476,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1476,7 +1514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1514,7 +1552,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1590,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1590,7 +1628,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1628,12 +1666,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>29</v>
@@ -1642,7 +1680,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
         <v>29</v>
@@ -1651,7 +1689,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" s="13" t="s">
         <v>30</v>
@@ -1660,317 +1698,347 @@
         <v>28</v>
       </c>
       <c r="O8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="N9" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13" t="s">
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="12" t="s">
+      <c r="N10" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13" t="s">
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="8">
-        <v>2</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C11" s="8">
+        <v>2</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="8">
-        <v>2</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="G11" s="8">
+        <v>2</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="8">
-        <v>2</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="K11" s="8">
+        <v>2</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O10" s="8">
-        <v>2</v>
-      </c>
-      <c r="P10" s="13" t="s">
+      <c r="O11" s="8">
+        <v>2</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="F11" s="12" t="s">
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="13"/>
-      <c r="J11" s="12" t="s">
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K11" s="8">
-        <v>2</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="N11" s="12" t="s">
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="N12" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="8">
-        <v>2</v>
-      </c>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="8">
-        <v>1</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="8">
-        <v>1</v>
-      </c>
-      <c r="H12" s="13" t="s">
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K12" s="8">
-        <v>1</v>
-      </c>
-      <c r="L12" s="13" t="s">
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N12" s="12" t="s">
+      <c r="N13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="8">
-        <v>1</v>
-      </c>
-      <c r="P12" s="13" t="s">
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13" t="s">
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="F14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="J14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="N14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>0</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="D15" s="13"/>
       <c r="F15" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
       </c>
       <c r="H15" s="13"/>
       <c r="J15" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="13"/>
       <c r="N15" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
         <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>1</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="13"/>
       <c r="F16" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="13"/>
       <c r="N16" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O16" s="8">
         <v>1</v>
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="8">
+        <v>1</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="F17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G17" s="8">
+        <v>1</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="J17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13"/>
+      <c r="N17" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O17" s="8">
+        <v>1</v>
+      </c>
+      <c r="P17" s="13"/>
+    </row>
+    <row r="18" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
-        <f>SUM(C4:C16)</f>
+      <c r="C18" s="15">
+        <f>SUM(C4:C17)</f>
         <v>35</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="F17" s="14" t="s">
+      <c r="D18" s="16"/>
+      <c r="F18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="15">
-        <f>SUM(G4:G16)</f>
+      <c r="G18" s="15">
+        <f>SUM(G4:G17)</f>
         <v>35</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="J17" s="14" t="s">
+      <c r="H18" s="16"/>
+      <c r="J18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="15">
-        <f>SUM(K4:K16)</f>
+      <c r="K18" s="15">
+        <f>SUM(K4:K17)</f>
         <v>35</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="N17" s="14" t="s">
+      <c r="L18" s="16"/>
+      <c r="N18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="15">
-        <f>SUM(O4:O16)</f>
+      <c r="O18" s="15">
+        <f>SUM(O4:O17)</f>
         <v>35</v>
       </c>
-      <c r="P17" s="16"/>
+      <c r="P18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1980,35 +2048,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BFDD-EEC7-429B-B144-A65EA6BC2A3E}">
-  <dimension ref="B1:P18"/>
+  <dimension ref="B1:P19"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6328125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.6328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.6328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.6328125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6328125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.6328125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.6328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.6328125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>40</v>
@@ -2030,7 +2096,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2068,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2106,7 +2172,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B5" s="12" t="s">
         <v>54</v>
       </c>
@@ -2144,7 +2210,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
@@ -2182,7 +2248,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
@@ -2220,7 +2286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
@@ -2258,12 +2324,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>29</v>
@@ -2272,7 +2338,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
         <v>29</v>
@@ -2281,7 +2347,7 @@
         <v>28</v>
       </c>
       <c r="K9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9" s="13" t="s">
         <v>30</v>
@@ -2290,317 +2356,347 @@
         <v>28</v>
       </c>
       <c r="O9" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P9" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="F10" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13"/>
+      <c r="J10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13"/>
+      <c r="N10" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
+      <c r="C11" s="8">
+        <v>1</v>
+      </c>
+      <c r="D11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
+      <c r="G11" s="8">
+        <v>1</v>
+      </c>
+      <c r="H11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="J11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="s">
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="12" t="s">
+      <c r="N11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13" t="s">
+      <c r="O11" s="8">
+        <v>1</v>
+      </c>
+      <c r="P11" s="13" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="13" t="s">
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="12" t="s">
+      <c r="J12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="8">
-        <v>2</v>
-      </c>
-      <c r="L11" s="13" t="s">
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="N11" s="12" t="s">
+      <c r="N12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="O11" s="8">
-        <v>2</v>
-      </c>
-      <c r="P11" s="13" t="s">
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="F12" s="12" t="s">
+      <c r="C13" s="8">
+        <v>2</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="F13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="J12" s="12" t="s">
+      <c r="G13" s="8">
+        <v>2</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="J13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K12" s="8">
-        <v>2</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="N12" s="12" t="s">
+      <c r="K13" s="8">
+        <v>2</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="N13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="8">
-        <v>2</v>
-      </c>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="O13" s="8">
+        <v>2</v>
+      </c>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13" t="s">
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="N13" s="12" t="s">
+      <c r="N14" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13" t="s">
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C15" s="8">
+        <v>2</v>
+      </c>
+      <c r="D15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="13" t="s">
+      <c r="G15" s="8">
+        <v>2</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="8">
-        <v>2</v>
-      </c>
-      <c r="L14" s="13" t="s">
+      <c r="K15" s="8">
+        <v>2</v>
+      </c>
+      <c r="L15" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="N14" s="12" t="s">
+      <c r="N15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O14" s="8">
-        <v>2</v>
-      </c>
-      <c r="P14" s="13" t="s">
+      <c r="O15" s="8">
+        <v>2</v>
+      </c>
+      <c r="P15" s="13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B16" s="12" t="s">
         <v>16</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="J15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="N15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>0</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="13"/>
       <c r="F16" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="13"/>
       <c r="N16" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1</v>
+      </c>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B17" s="12" t="s">
         <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>1</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="13"/>
       <c r="F17" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="13"/>
       <c r="J17" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="13"/>
       <c r="N17" s="12" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O17" s="8">
         <v>1</v>
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="14" t="s">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="B18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="8">
+        <v>1</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="F18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="8">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="J18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13"/>
+      <c r="N18" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1</v>
+      </c>
+      <c r="P18" s="13"/>
+    </row>
+    <row r="19" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="15">
-        <f>SUM(C4:C17)</f>
+      <c r="C19" s="15">
+        <f>SUM(C4:C18)</f>
         <v>35</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="F18" s="14" t="s">
+      <c r="D19" s="16"/>
+      <c r="F19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="15">
-        <f>SUM(G4:G17)</f>
+      <c r="G19" s="15">
+        <f>SUM(G4:G18)</f>
         <v>35</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="J18" s="14" t="s">
+      <c r="H19" s="16"/>
+      <c r="J19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="15">
-        <f>SUM(K4:K17)</f>
+      <c r="K19" s="15">
+        <f>SUM(K4:K18)</f>
         <v>35</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="N18" s="14" t="s">
+      <c r="L19" s="16"/>
+      <c r="N19" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="15">
-        <f>SUM(O4:O17)</f>
+      <c r="O19" s="15">
+        <f>SUM(O4:O18)</f>
         <v>35</v>
       </c>
-      <c r="P18" s="16"/>
+      <c r="P19" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Middle School Input.xlsx
+++ b/Middle School Input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard Hoshino\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\School Timetabling\St. Michaels University School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC20F58-F5E8-4034-A8C7-D66CE622A999}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146E8A80-E0BA-4720-896F-E62E5898F6E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade6" sheetId="1" r:id="rId1"/>
@@ -25,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="61">
   <si>
     <t>Assembly</t>
   </si>
@@ -211,13 +209,13 @@
     <t>Floyd</t>
   </si>
   <si>
-    <t>Comp/Comm</t>
-  </si>
-  <si>
     <t>SharedBand</t>
   </si>
   <si>
     <t>SharedStrings</t>
+  </si>
+  <si>
+    <t>Option</t>
   </si>
 </sst>
 </file>
@@ -808,33 +806,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="2.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>38</v>
@@ -856,7 +854,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -894,7 +892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -932,7 +930,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
@@ -970,7 +968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1008,7 +1006,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>6</v>
       </c>
@@ -1046,7 +1044,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>27</v>
       </c>
@@ -1084,37 +1082,37 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
       </c>
       <c r="D9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
       <c r="H9" s="13"/>
       <c r="J9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K9" s="8">
         <v>1</v>
       </c>
       <c r="L9" s="13"/>
       <c r="N9" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="O9" s="8">
         <v>1</v>
       </c>
       <c r="P9" s="13"/>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>7</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>12</v>
       </c>
@@ -1190,7 +1188,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>13</v>
       </c>
@@ -1220,7 +1218,7 @@
       </c>
       <c r="P12" s="13"/>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1256,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>15</v>
       </c>
@@ -1296,7 +1294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>16</v>
       </c>
@@ -1326,7 +1324,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
         <v>0</v>
       </c>
@@ -1356,7 +1354,7 @@
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
         <v>1</v>
       </c>
@@ -1386,7 +1384,7 @@
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
@@ -1428,33 +1426,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD03C7A1-8A5B-4466-B9A5-3651C9964F01}">
-  <dimension ref="B1:P18"/>
+  <dimension ref="B1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="2.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>44</v>
@@ -1476,7 +1474,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -1514,7 +1512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +1550,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>11</v>
       </c>
@@ -1590,7 +1588,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>4</v>
       </c>
@@ -1628,417 +1626,371 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="12" t="s">
+      <c r="C8" s="8">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="F8" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O7" s="8">
-        <v>2</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
-      </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="13" t="s">
-        <v>29</v>
-      </c>
+      <c r="H8" s="13"/>
       <c r="J8" s="12" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="13" t="s">
-        <v>30</v>
-      </c>
+      <c r="L8" s="13"/>
       <c r="N8" s="12" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="12" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="G9" s="8">
         <v>1</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="J9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="N9" s="12" t="s">
+      <c r="C10" s="8">
+        <v>4</v>
+      </c>
+      <c r="D10" s="13"/>
+      <c r="F10" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
       <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H10" s="13"/>
       <c r="J10" s="12" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L10" s="13"/>
       <c r="N10" s="12" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="P10" s="13"/>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="D11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="8">
         <v>2</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>33</v>
-      </c>
+      <c r="H11" s="13"/>
       <c r="J11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" s="8">
         <v>2</v>
       </c>
-      <c r="L11" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="L11" s="13"/>
       <c r="N11" s="12" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O11" s="8">
         <v>2</v>
       </c>
-      <c r="P11" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="F12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="J12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="8">
-        <v>2</v>
-      </c>
-      <c r="L12" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>32</v>
+      </c>
       <c r="N12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8">
-        <v>2</v>
-      </c>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P12" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="F13" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="J13" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K13" s="8">
         <v>1</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O13" s="8">
         <v>1</v>
       </c>
       <c r="P13" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="D14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="8">
         <v>1</v>
       </c>
-      <c r="H14" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="H14" s="13"/>
       <c r="J14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K14" s="8">
         <v>1</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="L14" s="13"/>
       <c r="N14" s="12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O14" s="8">
         <v>1</v>
       </c>
-      <c r="P14" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C15" s="8">
         <v>1</v>
       </c>
       <c r="D15" s="13"/>
       <c r="F15" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G15" s="8">
         <v>1</v>
       </c>
       <c r="H15" s="13"/>
       <c r="J15" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K15" s="8">
         <v>1</v>
       </c>
       <c r="L15" s="13"/>
       <c r="N15" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O15" s="8">
         <v>1</v>
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="13"/>
       <c r="F16" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="13"/>
       <c r="N16" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="8">
         <v>1</v>
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="F17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="J17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="N17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+    <row r="17" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="15">
-        <f>SUM(C4:C17)</f>
+      <c r="C17" s="15">
+        <f>SUM(C4:C16)</f>
         <v>35</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="F18" s="14" t="s">
+      <c r="D17" s="16"/>
+      <c r="F17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="15">
-        <f>SUM(G4:G17)</f>
+      <c r="G17" s="15">
+        <f>SUM(G4:G16)</f>
         <v>35</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="J18" s="14" t="s">
+      <c r="H17" s="16"/>
+      <c r="J17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="15">
-        <f>SUM(K4:K17)</f>
+      <c r="K17" s="15">
+        <f>SUM(K4:K16)</f>
         <v>35</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="N18" s="14" t="s">
+      <c r="L17" s="16"/>
+      <c r="N17" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="15">
-        <f>SUM(O4:O17)</f>
+      <c r="O17" s="15">
+        <f>SUM(O4:O16)</f>
         <v>35</v>
       </c>
-      <c r="P18" s="16"/>
+      <c r="P17" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2048,33 +2000,33 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BFDD-EEC7-429B-B144-A65EA6BC2A3E}">
-  <dimension ref="B1:P19"/>
+  <dimension ref="B1:P18"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.5703125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.5703125" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="2.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
         <v>40</v>
@@ -2096,7 +2048,7 @@
       </c>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +2086,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
@@ -2172,7 +2124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>54</v>
       </c>
@@ -2210,7 +2162,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>53</v>
       </c>
@@ -2248,7 +2200,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>4</v>
       </c>
@@ -2286,417 +2238,371 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C8" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="8">
+        <v>1</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" s="8">
+        <v>1</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13" t="s">
+      <c r="C9" s="8">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="8">
+        <v>1</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="N9" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="8">
+        <v>4</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="F11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="J11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="N11" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" s="8">
+        <v>4</v>
+      </c>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="N12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J8" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" s="8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="O8" s="8">
-        <v>2</v>
-      </c>
-      <c r="P8" s="13" t="s">
+      <c r="F13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="F10" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13"/>
-      <c r="J10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="N10" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="8">
-        <v>1</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="8">
-        <v>1</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K11" s="8">
-        <v>1</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="8">
-        <v>2</v>
-      </c>
-      <c r="L12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O12" s="8">
-        <v>2</v>
-      </c>
-      <c r="P12" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8">
-        <v>2</v>
-      </c>
-      <c r="D13" s="13"/>
-      <c r="F13" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="8">
-        <v>2</v>
-      </c>
-      <c r="H13" s="13"/>
       <c r="J13" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K13" s="8">
-        <v>2</v>
-      </c>
-      <c r="L13" s="13"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="N13" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" s="8">
-        <v>2</v>
-      </c>
-      <c r="P13" s="13"/>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P13" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="J14" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O14" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P14" s="13" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C15" s="8">
-        <v>2</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D15" s="13"/>
       <c r="F15" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="8">
-        <v>2</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H15" s="13"/>
       <c r="J15" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K15" s="8">
-        <v>2</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L15" s="13"/>
       <c r="N15" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="O15" s="8">
-        <v>2</v>
-      </c>
-      <c r="P15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C16" s="8">
         <v>1</v>
       </c>
       <c r="D16" s="13"/>
       <c r="F16" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8">
         <v>1</v>
       </c>
       <c r="H16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K16" s="8">
         <v>1</v>
       </c>
       <c r="L16" s="13"/>
       <c r="N16" s="12" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="O16" s="8">
         <v>1</v>
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="8">
         <v>1</v>
       </c>
       <c r="D17" s="13"/>
       <c r="F17" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="8">
         <v>1</v>
       </c>
       <c r="H17" s="13"/>
       <c r="J17" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="8">
         <v>1</v>
       </c>
       <c r="L17" s="13"/>
       <c r="N17" s="12" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O17" s="8">
         <v>1</v>
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.2">
-      <c r="B18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="8">
-        <v>1</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="F18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G18" s="8">
-        <v>1</v>
-      </c>
-      <c r="H18" s="13"/>
-      <c r="J18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1</v>
-      </c>
-      <c r="L18" s="13"/>
-      <c r="N18" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O18" s="8">
-        <v>1</v>
-      </c>
-      <c r="P18" s="13"/>
-    </row>
-    <row r="19" spans="2:16" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="14" t="s">
+    <row r="18" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="15">
-        <f>SUM(C4:C18)</f>
+      <c r="C18" s="15">
+        <f>SUM(C4:C17)</f>
         <v>35</v>
       </c>
-      <c r="D19" s="16"/>
-      <c r="F19" s="14" t="s">
+      <c r="D18" s="16"/>
+      <c r="F18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G19" s="15">
-        <f>SUM(G4:G18)</f>
+      <c r="G18" s="15">
+        <f>SUM(G4:G17)</f>
         <v>35</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="J19" s="14" t="s">
+      <c r="H18" s="16"/>
+      <c r="J18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K19" s="15">
-        <f>SUM(K4:K18)</f>
+      <c r="K18" s="15">
+        <f>SUM(K4:K17)</f>
         <v>35</v>
       </c>
-      <c r="L19" s="16"/>
-      <c r="N19" s="14" t="s">
+      <c r="L18" s="16"/>
+      <c r="N18" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O19" s="15">
-        <f>SUM(O4:O18)</f>
+      <c r="O18" s="15">
+        <f>SUM(O4:O17)</f>
         <v>35</v>
       </c>
-      <c r="P19" s="16"/>
+      <c r="P18" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Middle School Input.xlsx
+++ b/Middle School Input.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\School Timetabling\St. Michaels University School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Richard\Desktop\St. Michaels University School\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{146E8A80-E0BA-4720-896F-E62E5898F6E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69E7BE53-B900-40CD-A430-93EEC1F9D42B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Grade6" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="54">
   <si>
     <t>Assembly</t>
   </si>
@@ -71,151 +71,130 @@
     <t>Math/Science</t>
   </si>
   <si>
-    <t>PE</t>
-  </si>
-  <si>
     <t>XPE</t>
   </si>
   <si>
     <t>Art</t>
   </si>
   <si>
+    <t>XPLO</t>
+  </si>
+  <si>
+    <t>DeMerchant</t>
+  </si>
+  <si>
+    <t>Cade</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Gains</t>
+  </si>
+  <si>
+    <t>Harris</t>
+  </si>
+  <si>
+    <t>Weckend</t>
+  </si>
+  <si>
+    <t>Pike</t>
+  </si>
+  <si>
+    <t>Zhang</t>
+  </si>
+  <si>
+    <t>Frater</t>
+  </si>
+  <si>
+    <t>Wilkins</t>
+  </si>
+  <si>
+    <t>Hollingworth</t>
+  </si>
+  <si>
+    <t>Grade 6-C</t>
+  </si>
+  <si>
+    <t>Grade 6-D</t>
+  </si>
+  <si>
+    <t>Grade 6-A</t>
+  </si>
+  <si>
+    <t>Grade 6-B</t>
+  </si>
+  <si>
+    <t>Grade 8-A</t>
+  </si>
+  <si>
+    <t>Grade 8-B</t>
+  </si>
+  <si>
+    <t>Grade 8-C</t>
+  </si>
+  <si>
+    <t>Grade 8-D</t>
+  </si>
+  <si>
+    <t>Grade 7-A</t>
+  </si>
+  <si>
+    <t>Grade 7-B</t>
+  </si>
+  <si>
+    <t>Grade 7-C</t>
+  </si>
+  <si>
+    <t>Grade 7-D</t>
+  </si>
+  <si>
+    <t>Danskin</t>
+  </si>
+  <si>
+    <t>Stark</t>
+  </si>
+  <si>
+    <t>Donatelli</t>
+  </si>
+  <si>
+    <t>Marti</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t>Math</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Vachon</t>
+  </si>
+  <si>
+    <t>MFA</t>
+  </si>
+  <si>
+    <t>OPTION</t>
+  </si>
+  <si>
+    <t>MAA</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
     <t>ADST</t>
-  </si>
-  <si>
-    <t>XPLO</t>
-  </si>
-  <si>
-    <t>DeMerchant</t>
-  </si>
-  <si>
-    <t>Cade</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>Lee</t>
-  </si>
-  <si>
-    <t>Bell</t>
-  </si>
-  <si>
-    <t>Gains</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>Weckend</t>
-  </si>
-  <si>
-    <t>Pike</t>
-  </si>
-  <si>
-    <t>Zhang</t>
-  </si>
-  <si>
-    <t>Band</t>
-  </si>
-  <si>
-    <t>Strings</t>
-  </si>
-  <si>
-    <t>Enns</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Frater</t>
-  </si>
-  <si>
-    <t>Wilkins</t>
-  </si>
-  <si>
-    <t>Cunningham</t>
-  </si>
-  <si>
-    <t>Kuklinski</t>
-  </si>
-  <si>
-    <t>Hollingworth</t>
-  </si>
-  <si>
-    <t>Grade 6-C</t>
-  </si>
-  <si>
-    <t>Grade 6-D</t>
-  </si>
-  <si>
-    <t>Grade 6-A</t>
-  </si>
-  <si>
-    <t>Grade 6-B</t>
-  </si>
-  <si>
-    <t>Grade 8-A</t>
-  </si>
-  <si>
-    <t>Grade 8-B</t>
-  </si>
-  <si>
-    <t>Grade 8-C</t>
-  </si>
-  <si>
-    <t>Grade 8-D</t>
-  </si>
-  <si>
-    <t>Grade 7-A</t>
-  </si>
-  <si>
-    <t>Grade 7-B</t>
-  </si>
-  <si>
-    <t>Grade 7-C</t>
-  </si>
-  <si>
-    <t>Grade 7-D</t>
-  </si>
-  <si>
-    <t>Danskin</t>
-  </si>
-  <si>
-    <t>Stark</t>
-  </si>
-  <si>
-    <t>Donatelli</t>
-  </si>
-  <si>
-    <t>Marti</t>
-  </si>
-  <si>
-    <t>Kim</t>
-  </si>
-  <si>
-    <t>Science</t>
-  </si>
-  <si>
-    <t>Math</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>Vachon</t>
-  </si>
-  <si>
-    <t>Floyd</t>
-  </si>
-  <si>
-    <t>SharedBand</t>
-  </si>
-  <si>
-    <t>SharedStrings</t>
-  </si>
-  <si>
-    <t>Option</t>
   </si>
 </sst>
 </file>
@@ -804,629 +783,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:P18"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="2.54296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.54296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="2.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="2.54296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.54296875" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.54296875" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B2" s="2"/>
-      <c r="C2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="4"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="L2" s="4"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="4"/>
-    </row>
-    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="P3" s="7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="10">
-        <v>8</v>
-      </c>
-      <c r="D4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="10">
-        <v>8</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="10">
-        <v>8</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="10">
-        <v>8</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="8">
-        <v>9</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8">
-        <v>9</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="K5" s="8">
-        <v>9</v>
-      </c>
-      <c r="L5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="O5" s="8">
-        <v>9</v>
-      </c>
-      <c r="P5" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="8">
-        <v>3</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="8">
-        <v>3</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="K6" s="8">
-        <v>3</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="O6" s="8">
-        <v>3</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="8">
-        <v>2</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K7" s="8">
-        <v>2</v>
-      </c>
-      <c r="L7" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="O7" s="8">
-        <v>2</v>
-      </c>
-      <c r="P7" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G8" s="8">
-        <v>2</v>
-      </c>
-      <c r="H8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="K8" s="8">
-        <v>2</v>
-      </c>
-      <c r="L8" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="O8" s="8">
-        <v>2</v>
-      </c>
-      <c r="P8" s="13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="8">
-        <v>1</v>
-      </c>
-      <c r="D9" s="13"/>
-      <c r="F9" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="8">
-        <v>1</v>
-      </c>
-      <c r="H9" s="13"/>
-      <c r="J9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K9" s="8">
-        <v>1</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="N9" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1</v>
-      </c>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="8">
-        <v>2</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="8">
-        <v>2</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="8">
-        <v>2</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="O11" s="8">
-        <v>2</v>
-      </c>
-      <c r="P11" s="13" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="8">
-        <v>2</v>
-      </c>
-      <c r="D12" s="13"/>
-      <c r="F12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="8">
-        <v>2</v>
-      </c>
-      <c r="H12" s="13"/>
-      <c r="J12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K12" s="8">
-        <v>2</v>
-      </c>
-      <c r="L12" s="13"/>
-      <c r="N12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="8">
-        <v>2</v>
-      </c>
-      <c r="P12" s="13"/>
-    </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="8">
-        <v>1</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" s="8">
-        <v>1</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1</v>
-      </c>
-      <c r="L13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="N13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="O13" s="8">
-        <v>1</v>
-      </c>
-      <c r="P13" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="J15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="N15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="F16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="J16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="N16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="F17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="J17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="N17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="15">
-        <f>SUM(C4:C17)</f>
-        <v>35</v>
-      </c>
-      <c r="D18" s="16"/>
-      <c r="F18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18" s="15">
-        <f>SUM(G4:G17)</f>
-        <v>35</v>
-      </c>
-      <c r="H18" s="16"/>
-      <c r="J18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="15">
-        <f>SUM(K4:K17)</f>
-        <v>35</v>
-      </c>
-      <c r="L18" s="16"/>
-      <c r="N18" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="O18" s="15">
-        <f>SUM(O4:O17)</f>
-        <v>35</v>
-      </c>
-      <c r="P18" s="16"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD03C7A1-8A5B-4466-B9A5-3651C9964F01}">
-  <dimension ref="B1:P17"/>
+  <dimension ref="B1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
@@ -1455,22 +812,22 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="L2" s="4"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="P2" s="4"/>
     </row>
@@ -1517,37 +874,37 @@
         <v>2</v>
       </c>
       <c r="C4" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="G4" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="K4" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="O4" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
@@ -1558,7 +915,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>11</v>
@@ -1567,7 +924,7 @@
         <v>9</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J5" s="12" t="s">
         <v>11</v>
@@ -1576,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N5" s="12" t="s">
         <v>11</v>
@@ -1585,7 +942,7 @@
         <v>9</v>
       </c>
       <c r="P5" s="13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
@@ -1596,7 +953,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>4</v>
@@ -1605,7 +962,7 @@
         <v>3</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>4</v>
@@ -1614,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="N6" s="12" t="s">
         <v>4</v>
@@ -1623,76 +980,84 @@
         <v>3</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="G7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="K7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="O7" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
-      <c r="D8" s="13"/>
+      <c r="D8" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="F8" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="J8" s="12" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
-      <c r="L8" s="13"/>
+      <c r="L8" s="13" t="s">
+        <v>26</v>
+      </c>
       <c r="N8" s="12" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
-      <c r="P8" s="13"/>
+      <c r="P8" s="13" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
@@ -1702,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>7</v>
@@ -1711,7 +1076,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J9" s="12" t="s">
         <v>7</v>
@@ -1720,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>7</v>
@@ -1729,268 +1094,692 @@
         <v>1</v>
       </c>
       <c r="P9" s="13" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C10" s="8">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="8">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="O10" s="8">
+        <v>1</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8">
+        <v>5</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" s="8">
+        <v>5</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="J11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="K11" s="8">
+        <v>5</v>
+      </c>
+      <c r="L11" s="13"/>
+      <c r="N11" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="8">
+        <v>5</v>
+      </c>
+      <c r="P11" s="13"/>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8">
+        <v>2</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="F12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8">
+        <v>2</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="J12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="8">
+        <v>2</v>
+      </c>
+      <c r="L12" s="13"/>
+      <c r="N12" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" s="8">
+        <v>2</v>
+      </c>
+      <c r="P12" s="13"/>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="8">
+        <v>1</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="F13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" s="8">
+        <v>1</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="J13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="8">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13"/>
+      <c r="N13" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1</v>
+      </c>
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="F14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <v>1</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="J14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13"/>
+      <c r="N14" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="8">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="F15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="8">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="J15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13"/>
+      <c r="N15" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1</v>
+      </c>
+      <c r="P15" s="13"/>
+    </row>
+    <row r="16" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="15">
+        <f>SUM(C4:C15)</f>
+        <v>35</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="F16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G16" s="15">
+        <f>SUM(G4:G15)</f>
+        <v>35</v>
+      </c>
+      <c r="H16" s="16"/>
+      <c r="J16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="K16" s="15">
+        <f>SUM(K4:K15)</f>
+        <v>35</v>
+      </c>
+      <c r="L16" s="16"/>
+      <c r="N16" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="O16" s="15">
+        <f>SUM(O4:O15)</f>
+        <v>35</v>
+      </c>
+      <c r="P16" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD03C7A1-8A5B-4466-B9A5-3651C9964F01}">
+  <dimension ref="B1:P14"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2.54296875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.54296875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="2.54296875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="2.54296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.54296875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.54296875" style="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L2" s="4"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="4"/>
+    </row>
+    <row r="3" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="10">
+        <v>9</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="10">
+        <v>9</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" s="10">
+        <v>9</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="10">
+        <v>9</v>
+      </c>
+      <c r="P4" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="8">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="8">
+        <v>9</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="O5" s="8">
+        <v>9</v>
+      </c>
+      <c r="P5" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>4</v>
+      </c>
+      <c r="C6" s="8">
+        <v>3</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="8">
+        <v>3</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" s="8">
+        <v>3</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="8">
+        <v>3</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="8">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="O7" s="8">
+        <v>1</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="8">
+        <v>4</v>
+      </c>
+      <c r="D8" s="13"/>
+      <c r="F8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13"/>
+      <c r="J8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="8">
+        <v>4</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="N8" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="O8" s="8">
+        <v>4</v>
+      </c>
+      <c r="P8" s="13"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="8">
+        <v>4</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="F9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G9" s="8">
+        <v>4</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="J9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="8">
+        <v>4</v>
+      </c>
+      <c r="L9" s="13"/>
+      <c r="N9" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="8">
+        <v>4</v>
+      </c>
+      <c r="P9" s="13"/>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2</v>
       </c>
       <c r="D10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H10" s="13"/>
       <c r="J10" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="K10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L10" s="13"/>
       <c r="N10" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="O10" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P10" s="13"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="13"/>
       <c r="J11" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" s="13"/>
       <c r="N11" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O11" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C12" s="8">
         <v>1</v>
       </c>
-      <c r="D12" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="D12" s="13"/>
       <c r="F12" s="12" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G12" s="8">
         <v>1</v>
       </c>
-      <c r="H12" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="H12" s="13"/>
       <c r="J12" s="12" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="K12" s="8">
         <v>1</v>
       </c>
-      <c r="L12" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="L12" s="13"/>
       <c r="N12" s="12" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O12" s="8">
         <v>1</v>
       </c>
-      <c r="P12" s="13" t="s">
-        <v>32</v>
-      </c>
+      <c r="P12" s="13"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="D13" s="13"/>
       <c r="F13" s="12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="J13" s="12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="K13" s="8">
         <v>1</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>52</v>
-      </c>
+      <c r="L13" s="13"/>
       <c r="N13" s="12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="O13" s="8">
         <v>1</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="8">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13"/>
-      <c r="F14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14" s="8">
-        <v>1</v>
-      </c>
-      <c r="H14" s="13"/>
-      <c r="J14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K14" s="8">
-        <v>1</v>
-      </c>
-      <c r="L14" s="13"/>
-      <c r="N14" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O14" s="8">
-        <v>1</v>
-      </c>
-      <c r="P14" s="13"/>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="J15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="N15" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="F16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="J16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="N16" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="14" t="s">
+      <c r="P13" s="13"/>
+    </row>
+    <row r="14" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="15">
-        <f>SUM(C4:C16)</f>
+      <c r="C14" s="15">
+        <f>SUM(C4:C13)</f>
         <v>35</v>
       </c>
-      <c r="D17" s="16"/>
-      <c r="F17" s="14" t="s">
+      <c r="D14" s="16"/>
+      <c r="F14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G17" s="15">
-        <f>SUM(G4:G16)</f>
+      <c r="G14" s="15">
+        <f>SUM(G4:G13)</f>
         <v>35</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="J17" s="14" t="s">
+      <c r="H14" s="16"/>
+      <c r="J14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K17" s="15">
-        <f>SUM(K4:K16)</f>
+      <c r="K14" s="15">
+        <f>SUM(K4:K13)</f>
         <v>35</v>
       </c>
-      <c r="L17" s="16"/>
-      <c r="N17" s="14" t="s">
+      <c r="L14" s="16"/>
+      <c r="N14" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O17" s="15">
-        <f>SUM(O4:O16)</f>
+      <c r="O14" s="15">
+        <f>SUM(O4:O13)</f>
         <v>35</v>
       </c>
-      <c r="P17" s="16"/>
+      <c r="P14" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2000,9 +1789,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE0BFDD-EEC7-429B-B144-A65EA6BC2A3E}">
-  <dimension ref="B1:P18"/>
+  <dimension ref="B1:P15"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2029,22 +1820,22 @@
     <row r="2" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D2" s="4"/>
       <c r="F2" s="2"/>
       <c r="G2" s="3" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="H2" s="4"/>
       <c r="J2" s="2"/>
       <c r="K2" s="3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="L2" s="4"/>
       <c r="N2" s="2"/>
       <c r="O2" s="3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="P2" s="4"/>
     </row>
@@ -2094,7 +1885,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>2</v>
@@ -2103,7 +1894,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="J4" s="9" t="s">
         <v>2</v>
@@ -2112,7 +1903,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>2</v>
@@ -2121,39 +1912,39 @@
         <v>9</v>
       </c>
       <c r="P4" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C5" s="8">
         <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G5" s="8">
         <v>5</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="K5" s="8">
         <v>5</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="O5" s="8">
         <v>5</v>
@@ -2164,445 +1955,331 @@
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C6" s="8">
         <v>3</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="G6" s="8">
         <v>3</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="K6" s="8">
         <v>3</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="O6" s="8">
         <v>3</v>
       </c>
       <c r="P6" s="13" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="G7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="K7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="O7" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P7" s="13" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C8" s="8">
         <v>1</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G8" s="8">
         <v>1</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="K8" s="8">
         <v>1</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="O8" s="8">
         <v>1</v>
       </c>
       <c r="P8" s="13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C9" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D9" s="13"/>
       <c r="F9" s="12" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="G9" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H9" s="13"/>
       <c r="J9" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="K9" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L9" s="13"/>
       <c r="N9" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="O9" s="8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="P9" s="13"/>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C10" s="8">
-        <v>1</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D10" s="13"/>
       <c r="F10" s="12" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="G10" s="8">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H10" s="13"/>
       <c r="J10" s="12" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="K10" s="8">
-        <v>1</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="L10" s="13"/>
       <c r="N10" s="12" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="O10" s="8">
-        <v>1</v>
-      </c>
-      <c r="P10" s="13" t="s">
-        <v>31</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="P10" s="13"/>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="C11" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" s="13"/>
       <c r="F11" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="G11" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H11" s="13"/>
       <c r="J11" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="K11" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L11" s="13"/>
       <c r="N11" s="12" t="s">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="O11" s="8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P11" s="13"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" s="13"/>
       <c r="F12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="13"/>
       <c r="J12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" s="13"/>
       <c r="N12" s="12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O12" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P12" s="13"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C13" s="8">
         <v>1</v>
       </c>
-      <c r="D13" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="D13" s="13"/>
       <c r="F13" s="12" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G13" s="8">
         <v>1</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="H13" s="13"/>
       <c r="J13" s="12" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="K13" s="8">
         <v>1</v>
       </c>
-      <c r="L13" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="L13" s="13"/>
       <c r="N13" s="12" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="O13" s="8">
         <v>1</v>
       </c>
-      <c r="P13" s="13" t="s">
-        <v>57</v>
-      </c>
+      <c r="P13" s="13"/>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C14" s="8">
-        <v>2</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D14" s="13"/>
       <c r="F14" s="12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G14" s="8">
-        <v>2</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H14" s="13"/>
       <c r="J14" s="12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="K14" s="8">
-        <v>2</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>32</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="L14" s="13"/>
       <c r="N14" s="12" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="O14" s="8">
-        <v>2</v>
-      </c>
-      <c r="P14" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="8">
-        <v>1</v>
-      </c>
-      <c r="D15" s="13"/>
-      <c r="F15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G15" s="8">
-        <v>1</v>
-      </c>
-      <c r="H15" s="13"/>
-      <c r="J15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="K15" s="8">
-        <v>1</v>
-      </c>
-      <c r="L15" s="13"/>
-      <c r="N15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="8">
-        <v>1</v>
-      </c>
-      <c r="P15" s="13"/>
-    </row>
-    <row r="16" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="C16" s="8">
-        <v>1</v>
-      </c>
-      <c r="D16" s="13"/>
-      <c r="F16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="13"/>
-      <c r="J16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1</v>
-      </c>
-      <c r="L16" s="13"/>
-      <c r="N16" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>1</v>
-      </c>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="8">
-        <v>1</v>
-      </c>
-      <c r="D17" s="13"/>
-      <c r="F17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G17" s="8">
-        <v>1</v>
-      </c>
-      <c r="H17" s="13"/>
-      <c r="J17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1</v>
-      </c>
-      <c r="L17" s="13"/>
-      <c r="N17" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="O17" s="8">
-        <v>1</v>
-      </c>
-      <c r="P17" s="13"/>
-    </row>
-    <row r="18" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="P14" s="13"/>
+    </row>
+    <row r="15" spans="2:16" ht="12.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="15">
-        <f>SUM(C4:C17)</f>
+      <c r="C15" s="15">
+        <f>SUM(C4:C14)</f>
         <v>35</v>
       </c>
-      <c r="D18" s="16"/>
-      <c r="F18" s="14" t="s">
+      <c r="D15" s="16"/>
+      <c r="F15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G18" s="15">
-        <f>SUM(G4:G17)</f>
+      <c r="G15" s="15">
+        <f>SUM(G4:G14)</f>
         <v>35</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="J18" s="14" t="s">
+      <c r="H15" s="16"/>
+      <c r="J15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="K18" s="15">
-        <f>SUM(K4:K17)</f>
+      <c r="K15" s="15">
+        <f>SUM(K4:K14)</f>
         <v>35</v>
       </c>
-      <c r="L18" s="16"/>
-      <c r="N18" s="14" t="s">
+      <c r="L15" s="16"/>
+      <c r="N15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="O18" s="15">
-        <f>SUM(O4:O17)</f>
+      <c r="O15" s="15">
+        <f>SUM(O4:O14)</f>
         <v>35</v>
       </c>
-      <c r="P18" s="16"/>
+      <c r="P15" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
